--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B549A-A404-4590-8A66-1B94EA9ECA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18660" windowHeight="8565"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.4.ファイルアクセス処理" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,18 @@
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,9 +66,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>内容</t>
-  </si>
-  <si>
     <t>7.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -118,10 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
@@ -357,6 +362,20 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの選択理由を以下に示す。</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -364,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -770,9 +789,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,6 +803,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1095,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1110,7 +1132,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1131,7 +1153,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
@@ -1242,10 +1264,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1257,7 +1279,7 @@
         <v>7.4.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1278,14 +1300,14 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,7 +1320,7 @@
         <v>7.4.2.</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,13 +1372,13 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -1364,14 +1386,14 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1393,7 +1415,7 @@
     </row>
     <row r="18" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -1401,14 +1423,14 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -1430,7 +1452,7 @@
     </row>
     <row r="19" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -1438,14 +1460,14 @@
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -1475,7 +1497,7 @@
         <v>7.4.3.</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="27"/>
     </row>
@@ -1491,17 +1513,17 @@
     </row>
     <row r="24" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,29 +1555,29 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R31" s="25"/>
       <c r="S31" s="26"/>
       <c r="T31" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -1578,29 +1600,29 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="31"/>
       <c r="M32" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
@@ -1630,18 +1652,18 @@
       <c r="K33" s="28"/>
       <c r="L33" s="36"/>
       <c r="M33" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R33" s="30"/>
       <c r="S33" s="30"/>
       <c r="T33" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U33" s="30"/>
       <c r="V33" s="30"/>
@@ -1671,18 +1693,18 @@
       <c r="K34" s="38"/>
       <c r="L34" s="39"/>
       <c r="M34" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
       <c r="T34" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
@@ -1707,25 +1729,25 @@
       <c r="F35" s="37"/>
       <c r="G35" s="39"/>
       <c r="H35" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
       <c r="T35" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U35" s="30"/>
       <c r="V35" s="30"/>
@@ -1748,29 +1770,29 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -1795,25 +1817,25 @@
       <c r="F37" s="37"/>
       <c r="G37" s="39"/>
       <c r="H37" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N37" s="33"/>
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
       <c r="T37" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
@@ -1904,7 +1926,7 @@
         <v>7.4.4.</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -1940,7 +1962,7 @@
     <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="16"/>
       <c r="E41" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
@@ -2016,7 +2038,7 @@
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B549A-A404-4590-8A66-1B94EA9ECA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09415A-90F5-4BCF-A7A9-B599BE082A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$46</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -273,25 +273,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード処理内にDB登録後削除。</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>保持先</t>
     <rPh sb="0" eb="2">
       <t>ホジ</t>
@@ -350,22 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード後にエラー発生したために残ったファイルを削除。</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムでの選択理由を以下に示す。</t>
     <rPh sb="9" eb="11">
       <t>リユウ</t>
@@ -377,6 +342,22 @@
     <rPh sb="0" eb="2">
       <t>リユウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でDB登録に成功した場合、後続処理として</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Javaプログラムから削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でエラーが発生した場合、ファイルが</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除されないためクリーニングジョブにて削除する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1121,7 +1102,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI367"/>
+  <dimension ref="A1:AI369"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1281,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,7 +1353,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L16" s="20"/>
     </row>
@@ -1393,7 +1374,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1430,7 +1411,7 @@
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -1467,7 +1448,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -1566,7 +1547,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -1577,7 +1558,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="26"/>
       <c r="T31" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -1622,7 +1603,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
@@ -1639,7 +1620,7 @@
       <c r="AG32" s="30"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -1651,34 +1632,30 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="31"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="39"/>
     </row>
     <row r="34" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20"/>
@@ -1687,24 +1664,24 @@
       <c r="E34" s="20"/>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
       <c r="T34" s="29" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
@@ -1726,68 +1703,58 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="31"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="39"/>
     </row>
     <row r="36" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
@@ -1816,154 +1783,167 @@
       <c r="E37" s="20"/>
       <c r="F37" s="37"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32" t="s">
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="32" t="s">
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="32" t="s">
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
-    </row>
-    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-    </row>
-    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="16"/>
-    </row>
-    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="22" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.4.4.</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-    </row>
-    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="34"/>
+    </row>
+    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+    </row>
+    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="16"/>
-      <c r="E41" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
@@ -1991,44 +1971,117 @@
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
-      <c r="AG41" s="16"/>
-    </row>
-    <row r="42" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-    </row>
-    <row r="43" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="16"/>
+    </row>
+    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="22" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.4.4.</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+    </row>
+    <row r="43" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="16"/>
+      <c r="E43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="16"/>
+    </row>
+    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="16"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+    </row>
     <row r="45" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,8 +2091,8 @@
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2352,6 +2405,8 @@
     <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09415A-90F5-4BCF-A7A9-B599BE082A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F7B6A-8BD1-4992-A98D-8AF1E255E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイルレイアウト等の仕様は【外部IF設計書】に設定する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルクリーニング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -358,6 +354,13 @@
   </si>
   <si>
     <t>削除されないためクリーニングジョブにて削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルレイアウト等の仕様は【外部IF設計書】を参照。</t>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
@@ -1281,14 +1284,14 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1353,13 +1356,13 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -1367,14 +1370,14 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="18" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -1404,14 +1407,14 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="19" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -1441,14 +1444,14 @@
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -1478,7 +1481,7 @@
         <v>7.4.3.</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="27"/>
     </row>
@@ -1536,29 +1539,29 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="25"/>
       <c r="S31" s="26"/>
       <c r="T31" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -1581,29 +1584,29 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="31"/>
       <c r="M32" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
@@ -1640,7 +1643,7 @@
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U33" s="38"/>
       <c r="V33" s="38"/>
@@ -1670,18 +1673,18 @@
       <c r="K34" s="28"/>
       <c r="L34" s="36"/>
       <c r="M34" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
       <c r="T34" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
@@ -1718,7 +1721,7 @@
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U35" s="38"/>
       <c r="V35" s="38"/>
@@ -1748,18 +1751,18 @@
       <c r="K36" s="38"/>
       <c r="L36" s="39"/>
       <c r="M36" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -1784,25 +1787,25 @@
       <c r="F37" s="37"/>
       <c r="G37" s="39"/>
       <c r="H37" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="30"/>
       <c r="T37" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -1825,29 +1828,29 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
       <c r="M38" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
       <c r="T38" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U38" s="30"/>
       <c r="V38" s="30"/>
@@ -1872,25 +1875,25 @@
       <c r="F39" s="37"/>
       <c r="G39" s="39"/>
       <c r="H39" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39" s="33"/>
       <c r="O39" s="33"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
       <c r="T39" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
@@ -2091,8 +2094,8 @@
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F7B6A-8BD1-4992-A98D-8AF1E255E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18660" windowHeight="8565"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.4.ファイルアクセス処理" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$46</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -54,9 +66,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>内容</t>
-  </si>
-  <si>
     <t>7.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -110,15 +119,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイルレイアウト等の仕様は【外部IF設計書】に設定する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルクリーニング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの選択基準を以下に示す。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -268,25 +269,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード処理内にDB登録後削除。</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>保持先</t>
     <rPh sb="0" eb="2">
       <t>ホジ</t>
@@ -345,18 +327,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード後にエラー発生したために残ったファイルを削除。</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクジョ</t>
+    <t>本システムでの選択理由を以下に示す。</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でDB登録に成功した場合、後続処理として</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Javaプログラムから削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でエラーが発生した場合、ファイルが</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除されないためクリーニングジョブにて削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルレイアウト等の仕様は【外部IF設計書】を参照。</t>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -364,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -770,9 +773,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,6 +787,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1095,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI367"/>
+  <dimension ref="A1:AI369"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1116,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1131,7 +1137,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
@@ -1242,10 +1248,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1257,7 +1263,7 @@
         <v>7.4.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1278,14 +1284,14 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,7 +1304,7 @@
         <v>7.4.2.</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,13 +1356,13 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -1364,14 +1370,14 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="18" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -1401,14 +1407,14 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="19" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -1438,14 +1444,14 @@
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -1475,7 +1481,7 @@
         <v>7.4.3.</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="27"/>
     </row>
@@ -1491,17 +1497,17 @@
     </row>
     <row r="24" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,29 +1539,29 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R31" s="25"/>
       <c r="S31" s="26"/>
       <c r="T31" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -1578,29 +1584,29 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="31"/>
       <c r="M32" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
@@ -1617,7 +1623,7 @@
       <c r="AG32" s="30"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -1629,34 +1635,30 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="31"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="39"/>
     </row>
     <row r="34" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20"/>
@@ -1665,24 +1667,24 @@
       <c r="E34" s="20"/>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
       <c r="T34" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
@@ -1704,73 +1706,63 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="31"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="39"/>
     </row>
     <row r="36" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -1794,154 +1786,167 @@
       <c r="E37" s="20"/>
       <c r="F37" s="37"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="32" t="s">
+      <c r="H37" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
-    </row>
-    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-    </row>
-    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="16"/>
-    </row>
-    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="22" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.4.4.</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-    </row>
-    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="34"/>
+    </row>
+    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+    </row>
+    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="16"/>
-      <c r="E41" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
@@ -1969,44 +1974,117 @@
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
-      <c r="AG41" s="16"/>
-    </row>
-    <row r="42" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-    </row>
-    <row r="43" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="16"/>
+    </row>
+    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="22" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.4.4.</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+    </row>
+    <row r="43" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="16"/>
+      <c r="E43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="16"/>
+    </row>
+    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="16"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+    </row>
     <row r="45" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2094,7 @@
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2330,6 +2408,8 @@
     <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F7B6A-8BD1-4992-A98D-8AF1E255E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7E919-D497-4133-B9A3-8AD362638DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$46</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$43</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -131,16 +131,6 @@
   </si>
   <si>
     <t>CSV形式</t>
-    <rPh sb="3" eb="5">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>固定長形式</t>
-    <rPh sb="0" eb="3">
-      <t>コテイチョウ</t>
-    </rPh>
     <rPh sb="3" eb="5">
       <t>ケイシキ</t>
     </rPh>
@@ -1105,7 +1095,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI369"/>
+  <dimension ref="A1:AI368"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1137,7 +1127,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
@@ -1284,14 +1274,14 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1356,7 +1346,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="20"/>
     </row>
@@ -1370,14 +1360,14 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1398,232 +1388,232 @@
       <c r="AH17" s="26"/>
     </row>
     <row r="18" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
       <c r="Q18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="31"/>
-    </row>
-    <row r="19" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
-    </row>
-    <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="22" t="str">
+        <v>41</v>
+      </c>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="34"/>
+    </row>
+    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="22" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.4.3.</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="22" t="str">
-        <f>D22&amp;"1."</f>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="22" t="str">
+        <f>D21&amp;"1."</f>
         <v>7.4.3.1.</v>
       </c>
-      <c r="F23" s="21" t="str">
-        <f>E22&amp;"機能概要"</f>
+      <c r="F22" s="21" t="str">
+        <f>E21&amp;"機能概要"</f>
         <v>ファイルクリーニング機能概要</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="21" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
     <row r="27" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="22" t="str">
+        <f>D21&amp;"2."</f>
+        <v>7.4.3.2.</v>
+      </c>
+      <c r="F27" s="21" t="str">
+        <f>E21&amp;"方法"</f>
+        <v>ファイルクリーニング方法</v>
+      </c>
     </row>
     <row r="28" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="22" t="str">
-        <f>D22&amp;"2."</f>
-        <v>7.4.3.2.</v>
-      </c>
       <c r="F28" s="21" t="str">
-        <f>E22&amp;"方法"</f>
-        <v>ファイルクリーニング方法</v>
+        <f>E21&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>ファイルクリーニングを行う機能には、以下の方法がある。</v>
       </c>
     </row>
     <row r="29" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="21" t="str">
-        <f>E22&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>ファイルクリーニングを行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="26"/>
+    </row>
+    <row r="31" spans="2:34" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="26"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="2:34" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="29" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="31"/>
-    </row>
-    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="39"/>
+    </row>
+    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -1635,30 +1625,34 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="37" t="s">
+      <c r="M33" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="39"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="31"/>
     </row>
     <row r="34" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20"/>
@@ -1672,34 +1666,30 @@
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="36"/>
-      <c r="M34" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="29" t="s">
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="31"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="39"/>
     </row>
     <row r="35" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="20"/>
@@ -1708,50 +1698,56 @@
       <c r="E35" s="20"/>
       <c r="F35" s="35"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="39"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
@@ -1762,7 +1758,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -1784,28 +1780,30 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="31"/>
       <c r="H37" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="30"/>
       <c r="T37" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -1827,201 +1825,188 @@
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="31"/>
-    </row>
-    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="34"/>
+    </row>
+    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="34"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
     </row>
     <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-    </row>
-    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="16"/>
-    </row>
-    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="22" t="str">
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="16"/>
+    </row>
+    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="22" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.4.4.</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-    </row>
-    <row r="43" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+    </row>
+    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="16"/>
+      <c r="E42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="16"/>
+    </row>
+    <row r="43" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="16"/>
-      <c r="E43" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
@@ -2049,42 +2034,11 @@
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
-      <c r="AG43" s="16"/>
-    </row>
-    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="16"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-    </row>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+    </row>
+    <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2047,7 @@
     <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2409,7 +2363,6 @@
     <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.4ファイルアクセス処理.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7E919-D497-4133-B9A3-8AD362638DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18660" windowHeight="8565"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.4.ファイルアクセス処理" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.4.ファイルアクセス処理'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$43</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.4.ファイルアクセス処理'!$A$1:$AI$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -54,9 +66,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>内容</t>
-  </si>
-  <si>
     <t>7.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -110,15 +119,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイルレイアウト等の仕様は【外部IF設計書】に設定する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルクリーニング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの選択基準を以下に示す。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -136,16 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>固定長形式</t>
-    <rPh sb="0" eb="3">
-      <t>コテイチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>利用機能</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
@@ -268,25 +259,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード処理内にDB登録後削除。</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>保持先</t>
     <rPh sb="0" eb="2">
       <t>ホジ</t>
@@ -345,18 +317,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アップロード後にエラー発生したために残ったファイルを削除。</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクジョ</t>
+    <t>本システムでの選択理由を以下に示す。</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でDB登録に成功した場合、後続処理として</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Javaプログラムから削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップロード処理内でエラーが発生した場合、ファイルが</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除されないためクリーニングジョブにて削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルレイアウト等の仕様は【外部IF設計書】を参照。</t>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -364,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -770,9 +763,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,6 +777,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1095,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI367"/>
+  <dimension ref="A1:AI368"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1131,7 +1127,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
@@ -1242,10 +1238,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1257,7 +1253,7 @@
         <v>7.4.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1278,14 +1274,14 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,7 +1294,7 @@
         <v>7.4.2.</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,13 +1346,13 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="F16" s="21" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -1364,14 +1360,14 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="25" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -1392,101 +1388,69 @@
       <c r="AH17" s="26"/>
     </row>
     <row r="18" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="F18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
       <c r="Q18" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="31"/>
-    </row>
-    <row r="19" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
-    </row>
-    <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="22" t="str">
+        <v>41</v>
+      </c>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="34"/>
+    </row>
+    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="22" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.4.3.</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="22" t="str">
-        <f>D22&amp;"1."</f>
+      <c r="E21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="22" t="str">
+        <f>D21&amp;"1."</f>
         <v>7.4.3.1.</v>
       </c>
-      <c r="F23" s="21" t="str">
-        <f>E22&amp;"機能概要"</f>
+      <c r="F22" s="21" t="str">
+        <f>E21&amp;"機能概要"</f>
         <v>ファイルクリーニング機能概要</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,123 +1463,155 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="21" t="s">
-        <v>15</v>
-      </c>
+    <row r="26" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="22" t="str">
+        <f>D21&amp;"2."</f>
+        <v>7.4.3.2.</v>
+      </c>
+      <c r="F27" s="21" t="str">
+        <f>E21&amp;"方法"</f>
+        <v>ファイルクリーニング方法</v>
+      </c>
     </row>
     <row r="28" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="22" t="str">
-        <f>D22&amp;"2."</f>
-        <v>7.4.3.2.</v>
-      </c>
       <c r="F28" s="21" t="str">
-        <f>E22&amp;"方法"</f>
-        <v>ファイルクリーニング方法</v>
+        <f>E21&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>ファイルクリーニングを行う機能には、以下の方法がある。</v>
       </c>
     </row>
     <row r="29" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="21" t="str">
-        <f>E22&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>ファイルクリーニングを行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="26"/>
+    </row>
+    <row r="31" spans="2:34" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="25" t="s">
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="26"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="31"/>
     </row>
     <row r="32" spans="2:34" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="31"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="39"/>
     </row>
     <row r="33" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20"/>
@@ -1630,18 +1626,18 @@
       <c r="K33" s="28"/>
       <c r="L33" s="36"/>
       <c r="M33" s="29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R33" s="30"/>
       <c r="S33" s="30"/>
       <c r="T33" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U33" s="30"/>
       <c r="V33" s="30"/>
@@ -1665,67 +1661,61 @@
       <c r="E34" s="20"/>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="31"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="39"/>
     </row>
     <row r="35" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
       <c r="M35" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
       <c r="T35" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U35" s="30"/>
       <c r="V35" s="30"/>
@@ -1747,30 +1737,28 @@
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
@@ -1792,188 +1780,201 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
-    </row>
-    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="34"/>
     </row>
     <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="16"/>
-    </row>
-    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="22" t="str">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+    </row>
+    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="16"/>
+    </row>
+    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="22" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.4.4.</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+    </row>
+    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="16"/>
+      <c r="E42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-    </row>
-    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="16"/>
-      <c r="E41" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="16"/>
-    </row>
-    <row r="42" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -2001,11 +2002,42 @@
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-    </row>
-    <row r="43" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AG42" s="16"/>
+    </row>
+    <row r="43" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="16"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+    </row>
     <row r="44" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2015,8 +2047,8 @@
     <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2330,6 +2362,7 @@
     <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
